--- a/data/trans_bre/P11_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.045716694543426</v>
+        <v>3.071392731046799</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.63000546071274</v>
+        <v>10.20923945973401</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.853370082083893</v>
+        <v>7.212491095700706</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.113342377313036</v>
+        <v>4.290511812655446</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.118199869810075</v>
+        <v>0.1235365978732856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4978956094364368</v>
+        <v>0.4788633193894852</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3031585207300712</v>
+        <v>0.318907421966922</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1184231058920054</v>
+        <v>0.1276737732860647</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.30046720920229</v>
+        <v>12.1852700019371</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.83838516153468</v>
+        <v>19.64557379828132</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.58341522176211</v>
+        <v>17.785718736482</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.94137334994401</v>
+        <v>13.00401600979259</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6047685437459419</v>
+        <v>0.609905973039355</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.189905132878797</v>
+        <v>1.182066650163643</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9077419379356997</v>
+        <v>0.9696194853304909</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4629992019635105</v>
+        <v>0.4611168117752405</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>11.60350457776969</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13.37389532336937</v>
+        <v>13.37389532336936</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7111822424536784</v>
@@ -749,7 +749,7 @@
         <v>0.6208550029532937</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5586459418975734</v>
+        <v>0.5586459418975728</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.354862747670539</v>
+        <v>7.279592524450646</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.922014300697053</v>
+        <v>6.815480854041741</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.654044946545064</v>
+        <v>8.080116104514959</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9.420506129747515</v>
+        <v>9.508618689250801</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4143446803576871</v>
+        <v>0.4263172112601574</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3019249098889986</v>
+        <v>0.2946774175443279</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.379810674485836</v>
+        <v>0.3932526807161216</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3653414620817859</v>
+        <v>0.3666949387194151</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.20873347347483</v>
+        <v>14.908293239788</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.94200981457437</v>
+        <v>14.48837494611008</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15.43996356773407</v>
+        <v>15.47676069206546</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.12656312828948</v>
+        <v>17.27383795168725</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.074287335988327</v>
+        <v>1.08931454620225</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8027281501487828</v>
+        <v>0.7693905304029066</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9300076897034586</v>
+        <v>0.9100044054314821</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7984420583862633</v>
+        <v>0.7918235563596989</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>9.23419506196835</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.674057998498564</v>
+        <v>6.67405799849857</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8156128501397342</v>
@@ -849,7 +849,7 @@
         <v>0.5333211021306928</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.277899253563863</v>
+        <v>0.2778992535638632</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>11.21977486441284</v>
+        <v>10.91728541336194</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.49779731986614</v>
+        <v>11.0344165720039</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.061595868249588</v>
+        <v>4.85526612845647</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.231535137301378</v>
+        <v>2.149153125462385</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5088388667656446</v>
+        <v>0.5102282276352658</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.663756534341426</v>
+        <v>0.7124586421291387</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2609896650313456</v>
+        <v>0.2509638799813739</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.07991815008452403</v>
+        <v>0.08171175378882356</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.07416787994395</v>
+        <v>20.37289844788399</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.07290091307453</v>
+        <v>19.3254935865895</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.8348714222464</v>
+        <v>13.80252824720998</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.88736383783892</v>
+        <v>10.70794312981177</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.186681759253944</v>
+        <v>1.192897263874117</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.649048456686101</v>
+        <v>1.672416609394349</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.907414457744847</v>
+        <v>0.8925961737640451</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5065300116129441</v>
+        <v>0.5088624163434009</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.4783659796276701</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4266161400434581</v>
+        <v>0.4266161400434583</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.41186937575779</v>
+        <v>6.676831413838516</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.311592381217104</v>
+        <v>6.290749882721702</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.0596300028817</v>
+        <v>4.849981853477046</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.884786000890949</v>
+        <v>8.301996074456454</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3382401897634029</v>
+        <v>0.3480562445484584</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2663322120266899</v>
+        <v>0.266155425947744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2528627916497086</v>
+        <v>0.2536174606349783</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2564191912963922</v>
+        <v>0.2677364687456683</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.67450020659283</v>
+        <v>13.67805791153182</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.59152064657357</v>
+        <v>14.43322212311986</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.7288870194093</v>
+        <v>12.68812787881497</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15.77583536267177</v>
+        <v>15.84491813620931</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8908656857994146</v>
+        <v>0.866817638193202</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7567319480804875</v>
+        <v>0.7437977914972299</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7833422137510314</v>
+        <v>0.7867812135515272</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6038760277936901</v>
+        <v>0.6044730183645204</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>10.25480769650377</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10.6800985386908</v>
+        <v>10.68009853869079</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6061068930643035</v>
@@ -1049,7 +1049,7 @@
         <v>0.552590268122554</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4038473256696964</v>
+        <v>0.4038473256696962</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>9.106364460019829</v>
+        <v>9.069812110886327</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>10.36633153416149</v>
+        <v>10.13755664497157</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.037533646515126</v>
+        <v>8.26957689953605</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.439108374671994</v>
+        <v>8.611728575689828</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4787811522119808</v>
+        <v>0.4739062632373653</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5220408394744879</v>
+        <v>0.5099626178754784</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4168086763669682</v>
+        <v>0.4258566168308017</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.305491411603634</v>
+        <v>0.3089784977971205</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.10185231098269</v>
+        <v>13.15484631881396</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.42179135459186</v>
+        <v>14.37544784990567</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.19092632573419</v>
+        <v>12.30351391993472</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.64221271788105</v>
+        <v>12.84302438958757</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7674264391248016</v>
+        <v>0.765723490300423</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8141130053452381</v>
+        <v>0.8107538122699096</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6950677199651886</v>
+        <v>0.691899771355026</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5015557703878846</v>
+        <v>0.5096708228709804</v>
       </c>
     </row>
     <row r="19">
